--- a/data/trans_orig/PCS12_SP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud física (SF12)</t>
+          <t>Puntuación media del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>45,78</t>
+          <t>45,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,55</t>
+          <t>41,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>43,22</t>
+          <t>43,33</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,78; 46,73</t>
+          <t>44,9; 46,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,78; 42,23</t>
+          <t>40,86; 42,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,66; 43,85</t>
+          <t>42,78; 43,92</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,03</t>
+          <t>51,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>51,42</t>
+          <t>51,61</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>51,72</t>
+          <t>51,71</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,61; 52,37</t>
+          <t>50,74; 52,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 51,76</t>
+          <t>51,16; 52,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,45; 51,96</t>
+          <t>51,18; 52,06</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>53,37</t>
+          <t>53,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,01</t>
+          <t>53,02</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>53,18</t>
+          <t>53,22</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,81; 53,87</t>
+          <t>52,86; 53,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 53,45</t>
+          <t>52,54; 53,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,83; 53,54</t>
+          <t>52,87; 53,6</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,3</t>
+          <t>51,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,57</t>
+          <t>49,81</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,38</t>
+          <t>50,5</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,96; 51,61</t>
+          <t>50,63; 51,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,23; 49,96</t>
+          <t>49,39; 50,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,14; 50,61</t>
+          <t>50,21; 50,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PCS12_SP-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>48,78; 49,96</t>
+          <t>48,8; 50,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,95; 48,52</t>
+          <t>47,09; 48,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,3; 48,85</t>
+          <t>47,37; 48,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,9; 46,86</t>
+          <t>44,76; 46,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,27; 46,46</t>
+          <t>45,22; 46,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,51; 44,85</t>
+          <t>43,57; 44,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,49; 45,08</t>
+          <t>43,39; 45,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,86; 42,28</t>
+          <t>40,93; 42,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,99; 47,79</t>
+          <t>46,98; 47,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,22; 46,25</t>
+          <t>45,27; 46,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,4; 46,57</t>
+          <t>45,36; 46,56</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,78; 43,92</t>
+          <t>42,73; 43,91</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>54,06; 54,55</t>
+          <t>54,06; 54,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,67; 54,23</t>
+          <t>53,65; 54,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,52; 54,12</t>
+          <t>53,54; 54,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,74; 52,3</t>
+          <t>50,83; 52,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,85; 53,55</t>
+          <t>52,81; 53,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,42; 53,18</t>
+          <t>52,5; 53,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,17; 52,95</t>
+          <t>52,13; 52,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,16; 52,11</t>
+          <t>51,18; 52,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>53,57; 53,96</t>
+          <t>53,57; 53,99</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>53,19; 53,66</t>
+          <t>53,17; 53,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,96; 53,45</t>
+          <t>52,95; 53,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,18; 52,06</t>
+          <t>51,15; 52,03</t>
         </is>
       </c>
     </row>
@@ -1004,47 +1004,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,86; 54,93</t>
+          <t>53,82; 54,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>53,55; 54,79</t>
+          <t>53,63; 54,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>53,99; 55,06</t>
+          <t>54,0; 55,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,86; 53,96</t>
+          <t>52,85; 53,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,57; 53,94</t>
+          <t>52,6; 53,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,41; 54,55</t>
+          <t>53,33; 54,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,87; 54,17</t>
+          <t>52,79; 54,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>52,54; 53,46</t>
+          <t>52,54; 53,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,51; 54,3</t>
+          <t>53,46; 54,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53,65; 54,49</t>
+          <t>53,57; 54,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,87; 53,6</t>
+          <t>52,82; 53,55</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,95; 52,58</t>
+          <t>51,96; 52,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,98</t>
+          <t>52,38; 52,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 51,6</t>
+          <t>50,65; 51,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,02; 50,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,06</t>
+          <t>49,44; 50,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 50,74</t>
+          <t>50,05; 50,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,39; 50,45</t>
+          <t>49,42; 50,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,33; 51,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,75; 51,21</t>
+          <t>50,79; 51,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,74</t>
+          <t>51,26; 51,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,21; 50,85</t>
+          <t>50,22; 50,81</t>
         </is>
       </c>
     </row>
